--- a/CP_35mW_hand.xlsx
+++ b/CP_35mW_hand.xlsx
@@ -16,6 +16,8 @@
     <sheet name="measured" sheetId="1" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" r:id="rId2"/>
     <sheet name="rho_mat" sheetId="3" r:id="rId3"/>
+    <sheet name="rho_min" sheetId="4" r:id="rId7"/>
+    <sheet name="rho_max" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="10">
   <si>
     <t>I1</t>
   </si>
@@ -88,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="260">
     <border>
       <left/>
       <right/>
@@ -131,11 +133,241 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -166,6 +398,236 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1277,22 +1739,22 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="254" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="254" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="254" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1301,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0075519898784618643</v>
+        <v>0.0075519898784618626</v>
       </c>
       <c r="C2">
         <v>0.99244801012153827</v>
@@ -1341,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.16481382646710874</v>
+        <v>0.16481382646710871</v>
       </c>
       <c r="C4">
         <v>0.83518617353289126</v>
@@ -1410,7 +1872,7 @@
         <v>0.034897826339563814</v>
       </c>
       <c r="E7">
-        <v>0.49834096012895412</v>
+        <v>0.49834096012895418</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1427,10 +1889,10 @@
         <v>0.5892970666612255</v>
       </c>
       <c r="D8">
-        <v>0.16177004829851255</v>
+        <v>0.16177004829851258</v>
       </c>
       <c r="E8">
-        <v>0.46460357867836904</v>
+        <v>0.4646035786783691</v>
       </c>
       <c r="F8">
         <v>1.0000000000000004</v>
@@ -1447,7 +1909,7 @@
         <v>0.71681994944692529</v>
       </c>
       <c r="D9">
-        <v>0.20963651655580198</v>
+        <v>0.20963651655580201</v>
       </c>
       <c r="E9">
         <v>0.39880024934465114</v>
@@ -1467,10 +1929,10 @@
         <v>0.86404185895085339</v>
       </c>
       <c r="D10">
-        <v>0.14677713473767187</v>
+        <v>0.14677713473767184</v>
       </c>
       <c r="E10">
-        <v>0.30972567790517963</v>
+        <v>0.30972567790517957</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1481,13 +1943,13 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.02870679001985954</v>
+        <v>0.028706790019859547</v>
       </c>
       <c r="C11">
-        <v>0.97129320998014057</v>
+        <v>0.97129320998014046</v>
       </c>
       <c r="D11">
-        <v>0.035623932957522073</v>
+        <v>0.035623932957522066</v>
       </c>
       <c r="E11">
         <v>0.16313689208912027</v>
@@ -1661,7 +2123,7 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0065152334236458533</v>
+        <v>0.0065152334236458541</v>
       </c>
       <c r="C20">
         <v>0.99348476657635421</v>
@@ -1679,4 +2141,838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="256" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="256" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="256" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.10342265093804158</v>
+      </c>
+      <c r="C2">
+        <v>0.89657734906195841</v>
+      </c>
+      <c r="D2">
+        <v>0.042056957302656184</v>
+      </c>
+      <c r="E2">
+        <v>0.055605507306196345</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.1184505173164961</v>
+      </c>
+      <c r="C3">
+        <v>0.88154948268350386</v>
+      </c>
+      <c r="D3">
+        <v>-0.093616918934079682</v>
+      </c>
+      <c r="E3">
+        <v>0.15538855114436551</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.22571084234709268</v>
+      </c>
+      <c r="C4">
+        <v>0.77428915765290729</v>
+      </c>
+      <c r="D4">
+        <v>-0.18994331471347453</v>
+      </c>
+      <c r="E4">
+        <v>0.23685105504271514</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.35910857897921827</v>
+      </c>
+      <c r="C5">
+        <v>0.64089142102078178</v>
+      </c>
+      <c r="D5">
+        <v>-0.1898679626137201</v>
+      </c>
+      <c r="E5">
+        <v>0.3108556749506135</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.46240317495782335</v>
+      </c>
+      <c r="C6">
+        <v>0.53759682504217665</v>
+      </c>
+      <c r="D6">
+        <v>-0.10367609329812355</v>
+      </c>
+      <c r="E6">
+        <v>0.38394333452162227</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.48317933567228316</v>
+      </c>
+      <c r="C7">
+        <v>0.51682066432771678</v>
+      </c>
+      <c r="D7">
+        <v>0.028034440546194674</v>
+      </c>
+      <c r="E7">
+        <v>0.40033181099965987</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.4201257022493729</v>
+      </c>
+      <c r="C8">
+        <v>0.57987429775062704</v>
+      </c>
+      <c r="D8">
+        <v>0.14469981476562865</v>
+      </c>
+      <c r="E8">
+        <v>0.41557786800688573</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.28677572121667577</v>
+      </c>
+      <c r="C9">
+        <v>0.71322427878332428</v>
+      </c>
+      <c r="D9">
+        <v>0.20615997357791319</v>
+      </c>
+      <c r="E9">
+        <v>0.3921866773204048</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.15989882245259041</v>
+      </c>
+      <c r="C10">
+        <v>0.84010117754740965</v>
+      </c>
+      <c r="D10">
+        <v>0.13712455073037297</v>
+      </c>
+      <c r="E10">
+        <v>0.28935702084315029</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.097562295559807763</v>
+      </c>
+      <c r="C11">
+        <v>0.90243770444019222</v>
+      </c>
+      <c r="D11">
+        <v>0.030419309038627839</v>
+      </c>
+      <c r="E11">
+        <v>0.13930274183908564</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.13295900250786116</v>
+      </c>
+      <c r="C12">
+        <v>0.86704099749213881</v>
+      </c>
+      <c r="D12">
+        <v>-0.11060755696539723</v>
+      </c>
+      <c r="E12">
+        <v>-0.026964031300022218</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.24082952819712841</v>
+      </c>
+      <c r="C13">
+        <v>0.75917047180287156</v>
+      </c>
+      <c r="D13">
+        <v>-0.19686350415716841</v>
+      </c>
+      <c r="E13">
+        <v>-0.18714184963088856</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.38080688722825373</v>
+      </c>
+      <c r="C14">
+        <v>0.61919311277174627</v>
+      </c>
+      <c r="D14">
+        <v>-0.19716991551961771</v>
+      </c>
+      <c r="E14">
+        <v>-0.31302116531645524</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.48064618115852031</v>
+      </c>
+      <c r="C15">
+        <v>0.51935381884147969</v>
+      </c>
+      <c r="D15">
+        <v>-0.10359985379850893</v>
+      </c>
+      <c r="E15">
+        <v>-0.38379761222586095</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50443915236871639</v>
+      </c>
+      <c r="C16">
+        <v>0.49556084763128366</v>
+      </c>
+      <c r="D16">
+        <v>0.031074066581014609</v>
+      </c>
+      <c r="E16">
+        <v>-0.37526374548943897</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.4371810009721982</v>
+      </c>
+      <c r="C17">
+        <v>0.56281899902780186</v>
+      </c>
+      <c r="D17">
+        <v>0.14160893001182437</v>
+      </c>
+      <c r="E17">
+        <v>-0.30323476140877859</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.30984288497155549</v>
+      </c>
+      <c r="C18">
+        <v>0.69015711502844446</v>
+      </c>
+      <c r="D18">
+        <v>0.20764282675519802</v>
+      </c>
+      <c r="E18">
+        <v>-0.19409140016696405</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.18387225670423712</v>
+      </c>
+      <c r="C19">
+        <v>0.81612774329576276</v>
+      </c>
+      <c r="D19">
+        <v>0.14607281931597324</v>
+      </c>
+      <c r="E19">
+        <v>-0.071946313991449462</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.10290017230215487</v>
+      </c>
+      <c r="C20">
+        <v>0.89709982769784513</v>
+      </c>
+      <c r="D20">
+        <v>0.046893726630074718</v>
+      </c>
+      <c r="E20">
+        <v>0.044634332429637449</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="258" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="258" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="258" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0075519901630795618</v>
+      </c>
+      <c r="C2">
+        <v>0.9924480098369205</v>
+      </c>
+      <c r="D2">
+        <v>0.052224023819004498</v>
+      </c>
+      <c r="E2">
+        <v>0.069047870418415244</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.048441265046709377</v>
+      </c>
+      <c r="C3">
+        <v>0.95155873495329069</v>
+      </c>
+      <c r="D3">
+        <v>-0.11079437766965544</v>
+      </c>
+      <c r="E3">
+        <v>0.1839002823106384</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.16481382690942925</v>
+      </c>
+      <c r="C4">
+        <v>0.83518617309057075</v>
+      </c>
+      <c r="D4">
+        <v>-0.23211407008479917</v>
+      </c>
+      <c r="E4">
+        <v>0.28943615347965385</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.31962564047813941</v>
+      </c>
+      <c r="C5">
+        <v>0.68037435952186065</v>
+      </c>
+      <c r="D5">
+        <v>-0.24307592259374544</v>
+      </c>
+      <c r="E5">
+        <v>0.39796882497680341</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.45294138884807944</v>
+      </c>
+      <c r="C6">
+        <v>0.54705861115192056</v>
+      </c>
+      <c r="D6">
+        <v>-0.12976768529772056</v>
+      </c>
+      <c r="E6">
+        <v>0.48056824115749242</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.47906130421089405</v>
+      </c>
+      <c r="C7">
+        <v>0.52093869578910601</v>
+      </c>
+      <c r="D7">
+        <v>0.034897826315176579</v>
+      </c>
+      <c r="E7">
+        <v>0.49834095978072168</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.41070293341854947</v>
+      </c>
+      <c r="C8">
+        <v>0.58929706658145053</v>
+      </c>
+      <c r="D8">
+        <v>0.1617700481548015</v>
+      </c>
+      <c r="E8">
+        <v>0.46460357830059018</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.28318005152588582</v>
+      </c>
+      <c r="C9">
+        <v>0.71681994847411412</v>
+      </c>
+      <c r="D9">
+        <v>0.20963651561467359</v>
+      </c>
+      <c r="E9">
+        <v>0.39880024757994148</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.13595814081029506</v>
+      </c>
+      <c r="C10">
+        <v>0.864041859189705</v>
+      </c>
+      <c r="D10">
+        <v>0.14677713481741578</v>
+      </c>
+      <c r="E10">
+        <v>0.30972567809663248</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.028706790681566594</v>
+      </c>
+      <c r="C11">
+        <v>0.97129320931843333</v>
+      </c>
+      <c r="D11">
+        <v>0.035623932906601548</v>
+      </c>
+      <c r="E11">
+        <v>0.16313689185640601</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.022444922325661965</v>
+      </c>
+      <c r="C12">
+        <v>0.97755507767433802</v>
+      </c>
+      <c r="D12">
+        <v>-0.14391090046857871</v>
+      </c>
+      <c r="E12">
+        <v>-0.03508275683064855</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.15483388665589518</v>
+      </c>
+      <c r="C13">
+        <v>0.84516611334410485</v>
+      </c>
+      <c r="D13">
+        <v>-0.26218500169616143</v>
+      </c>
+      <c r="E13">
+        <v>-0.24923759420499295</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.34666584066696493</v>
+      </c>
+      <c r="C14">
+        <v>0.65333415933303518</v>
+      </c>
+      <c r="D14">
+        <v>-0.25364622618642257</v>
+      </c>
+      <c r="E14">
+        <v>-0.40268129694002686</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.4756864724639403</v>
+      </c>
+      <c r="C15">
+        <v>0.52431352753605964</v>
+      </c>
+      <c r="D15">
+        <v>-0.13014888269302533</v>
+      </c>
+      <c r="E15">
+        <v>-0.48215155311508479</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50589412593032557</v>
+      </c>
+      <c r="C16">
+        <v>0.49410587406967449</v>
+      </c>
+      <c r="D16">
+        <v>0.041258881512278571</v>
+      </c>
+      <c r="E16">
+        <v>-0.49825993552006742</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.40775890554154393</v>
+      </c>
+      <c r="C17">
+        <v>0.59224109445845619</v>
+      </c>
+      <c r="D17">
+        <v>0.20793331462668918</v>
+      </c>
+      <c r="E17">
+        <v>-0.44525870680963192</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.22197201156721322</v>
+      </c>
+      <c r="C18">
+        <v>0.77802798843278675</v>
+      </c>
+      <c r="D18">
+        <v>0.30359378047258323</v>
+      </c>
+      <c r="E18">
+        <v>-0.28378029164174101</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.055499044799442523</v>
+      </c>
+      <c r="C19">
+        <v>0.94450095520055743</v>
+      </c>
+      <c r="D19">
+        <v>0.20539009654094734</v>
+      </c>
+      <c r="E19">
+        <v>-0.10116228635598891</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.0065152337242718635</v>
+      </c>
+      <c r="C20">
+        <v>0.99348476627572813</v>
+      </c>
+      <c r="D20">
+        <v>0.058275874507426523</v>
+      </c>
+      <c r="E20">
+        <v>0.055468075205695501</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/CP_35mW_hand.xlsx
+++ b/CP_35mW_hand.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="10">
   <si>
     <t>I1</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="260">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -363,11 +363,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -628,6 +634,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1735,26 +1747,26 @@
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="254" t="s">
+      <c r="B1" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="254" t="s">
+      <c r="D1" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="254" t="s">
+      <c r="E1" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="260" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1763,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0075519898784618626</v>
+        <v>0.0075519905336827366</v>
       </c>
       <c r="C2">
-        <v>0.99244801012153827</v>
+        <v>0.99244800949320888</v>
       </c>
       <c r="D2">
-        <v>0.052224023849191073</v>
+        <v>0.052224023781186672</v>
       </c>
       <c r="E2">
-        <v>0.069047870458326319</v>
+        <v>0.06904787036841345</v>
       </c>
       <c r="F2">
-        <v>1.0000000000000004</v>
+        <v>1.0000000000537832</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -1783,19 +1795,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.048441264276155305</v>
+        <v>0.048441264952513177</v>
       </c>
       <c r="C3">
-        <v>0.95155873572384464</v>
+        <v>0.95155873505250854</v>
       </c>
       <c r="D3">
-        <v>-0.11079437786050864</v>
+        <v>-0.1107943776934928</v>
       </c>
       <c r="E3">
-        <v>0.18390028262709146</v>
+        <v>0.18390028235004197</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>1.0000000000100435</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -1803,19 +1815,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.16481382646710871</v>
+        <v>0.16481382696011687</v>
       </c>
       <c r="C4">
-        <v>0.83518617353289126</v>
+        <v>0.83518617305200826</v>
       </c>
       <c r="D4">
-        <v>-0.23211407039115495</v>
+        <v>-0.23211407005345541</v>
       </c>
       <c r="E4">
-        <v>0.28943615386163429</v>
+        <v>0.28943615344031975</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.0000000000242504</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -1823,19 +1835,19 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.32303370791455344</v>
+        <v>0.32303370785430102</v>
       </c>
       <c r="C5">
-        <v>0.67696629208544656</v>
+        <v>0.67696629212065451</v>
       </c>
       <c r="D5">
-        <v>-0.23848314600086368</v>
+        <v>-0.23848314606518278</v>
       </c>
       <c r="E5">
-        <v>0.3904494380932868</v>
+        <v>0.39044943819858913</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99999999994991118</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -1843,19 +1855,19 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.45299145299109006</v>
+        <v>0.45299145296215348</v>
       </c>
       <c r="C6">
-        <v>0.54700854700890988</v>
+        <v>0.54700854687123868</v>
       </c>
       <c r="D6">
-        <v>-0.12962962963063041</v>
+        <v>-0.12962962948068235</v>
       </c>
       <c r="E6">
-        <v>0.48005698006068614</v>
+        <v>0.48005697950536358</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99999999966678432</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -1863,19 +1875,19 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.47906130419626225</v>
+        <v>0.47906130424838855</v>
       </c>
       <c r="C7">
-        <v>0.52093869580373786</v>
+        <v>0.5209386957953912</v>
       </c>
       <c r="D7">
-        <v>0.034897826339563814</v>
+        <v>0.034897826289186411</v>
       </c>
       <c r="E7">
-        <v>0.49834096012895418</v>
+        <v>0.49834095940789019</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.0000000000875593</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -1883,19 +1895,19 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.41070293333877467</v>
+        <v>0.41070293345232955</v>
       </c>
       <c r="C8">
-        <v>0.5892970666612255</v>
+        <v>0.58929706654928993</v>
       </c>
       <c r="D8">
-        <v>0.16177004829851258</v>
+        <v>0.16177004809455864</v>
       </c>
       <c r="E8">
-        <v>0.4646035786783691</v>
+        <v>0.46460357812324005</v>
       </c>
       <c r="F8">
-        <v>1.0000000000000004</v>
+        <v>1.0000000000032392</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -1903,19 +1915,19 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.28318005055307471</v>
+        <v>0.2831800500999152</v>
       </c>
       <c r="C9">
-        <v>0.71681994944692529</v>
+        <v>0.71681994990061104</v>
       </c>
       <c r="D9">
-        <v>0.20963651655580201</v>
+        <v>0.20963651699318792</v>
       </c>
       <c r="E9">
-        <v>0.39880024934465114</v>
+        <v>0.39880025020032173</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>1.0000000000010525</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -1923,19 +1935,19 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.13595814104914661</v>
+        <v>0.13595813992678013</v>
       </c>
       <c r="C10">
-        <v>0.86404185895085339</v>
+        <v>0.86404186007410455</v>
       </c>
       <c r="D10">
-        <v>0.14677713473767184</v>
+        <v>0.14677713517386054</v>
       </c>
       <c r="E10">
-        <v>0.30972567790517957</v>
+        <v>0.30972567884767865</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>1.0000000000017693</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -1943,19 +1955,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.028706790019859547</v>
+        <v>0.028706790694359982</v>
       </c>
       <c r="C11">
-        <v>0.97129320998014046</v>
+        <v>0.97129320930959251</v>
       </c>
       <c r="D11">
-        <v>0.035623932957522066</v>
+        <v>0.035623932905857386</v>
       </c>
       <c r="E11">
-        <v>0.16313689208912027</v>
+        <v>0.16313689185281799</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>1.0000000000079048</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -1963,19 +1975,19 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.037447988906882217</v>
+        <v>0.037447990166839799</v>
       </c>
       <c r="C12">
-        <v>0.96255201109311783</v>
+        <v>0.96255200980317157</v>
       </c>
       <c r="D12">
-        <v>-0.1393897364763369</v>
+        <v>-0.13938973609283917</v>
       </c>
       <c r="E12">
-        <v>-0.033980582524082148</v>
+        <v>-0.03398058243059271</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.99999999994002264</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -1983,19 +1995,19 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.17179630665302725</v>
+        <v>0.17179630726165601</v>
       </c>
       <c r="C13">
-        <v>0.82820369334697264</v>
+        <v>0.82820369273517647</v>
       </c>
       <c r="D13">
-        <v>-0.2493005036420739</v>
+        <v>-0.24930050317856056</v>
       </c>
       <c r="E13">
-        <v>-0.23698936765974929</v>
+        <v>-0.23698936721912678</v>
       </c>
       <c r="F13">
-        <v>0.99999999999999978</v>
+        <v>0.99999999999366507</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -2003,19 +2015,19 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.35014005602862042</v>
+        <v>0.35014005661461711</v>
       </c>
       <c r="C14">
-        <v>0.64985994397137958</v>
+        <v>0.64985994336951292</v>
       </c>
       <c r="D14">
-        <v>-0.24789915965359055</v>
+        <v>-0.24789915867109696</v>
       </c>
       <c r="E14">
-        <v>-0.39355742295287538</v>
+        <v>-0.3935574213930923</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99999999996826006</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -2023,19 +2035,19 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.47578347578447627</v>
+        <v>0.47578347579920499</v>
       </c>
       <c r="C15">
-        <v>0.52421652421552367</v>
+        <v>0.52421652412955178</v>
       </c>
       <c r="D15">
-        <v>-0.12962962962427377</v>
+        <v>-0.12962962935485733</v>
       </c>
       <c r="E15">
-        <v>-0.48022792020807914</v>
+        <v>-0.48022791921000352</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99999999985751353</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -2043,19 +2055,19 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50561797752816973</v>
+        <v>0.50561797751424287</v>
       </c>
       <c r="C16">
-        <v>0.49438202247183038</v>
+        <v>0.49438202248240848</v>
       </c>
       <c r="D16">
-        <v>0.039325842697187703</v>
+        <v>0.039325842611425813</v>
       </c>
       <c r="E16">
-        <v>-0.47491573034382367</v>
+        <v>-0.4749157293081272</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.99999999999330269</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -2063,19 +2075,19 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.41873278236914602</v>
+        <v>0.41873278238240175</v>
       </c>
       <c r="C17">
-        <v>0.58126721763085409</v>
+        <v>0.58126721761742761</v>
       </c>
       <c r="D17">
-        <v>0.18319559228650142</v>
+        <v>0.1831955922564264</v>
       </c>
       <c r="E17">
-        <v>-0.39228650137741039</v>
+        <v>-0.3922865013130088</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99999999999965872</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -2083,19 +2095,19 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.25423728813559321</v>
+        <v>0.25423728816954183</v>
       </c>
       <c r="C18">
-        <v>0.74576271186440679</v>
+        <v>0.74576271183028697</v>
       </c>
       <c r="D18">
-        <v>0.26836158192090398</v>
+        <v>0.26836158188373882</v>
       </c>
       <c r="E18">
-        <v>-0.25084745762711863</v>
+        <v>-0.25084745759237936</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99999999999965761</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -2103,19 +2115,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.094972067039106198</v>
+        <v>0.094972067016545508</v>
       </c>
       <c r="C19">
-        <v>0.9050279329608939</v>
+        <v>0.90502793296688711</v>
       </c>
       <c r="D19">
-        <v>0.1871508379888269</v>
+        <v>0.18715083800562987</v>
       </c>
       <c r="E19">
-        <v>-0.092178770949720629</v>
+        <v>-0.092178770957996842</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99999999996686517</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -2123,19 +2135,19 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0065152334236458541</v>
+        <v>0.006515234090790736</v>
       </c>
       <c r="C20">
-        <v>0.99348476657635421</v>
+        <v>0.99348476593887081</v>
       </c>
       <c r="D20">
-        <v>0.058275874542930733</v>
+        <v>0.058275874465959776</v>
       </c>
       <c r="E20">
-        <v>0.055468075239489087</v>
+        <v>0.055468075166226753</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>1.0000000000593232</v>
       </c>
     </row>
   </sheetData>
@@ -2151,28 +2163,28 @@
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="256" t="s">
+      <c r="D1" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="256" t="s">
+      <c r="E1" s="262" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="256" t="s">
+      <c r="F1" s="262" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2181,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.10342265093804158</v>
+        <v>0.074575713364642998</v>
       </c>
       <c r="C2">
-        <v>0.89657734906195841</v>
+        <v>0.92542428663535703</v>
       </c>
       <c r="D2">
-        <v>0.042056957302656184</v>
+        <v>0.045116169899408073</v>
       </c>
       <c r="E2">
-        <v>0.055605507306196345</v>
+        <v>0.059650238054922013</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2201,16 +2213,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.1184505173164961</v>
+        <v>0.091998818306347555</v>
       </c>
       <c r="C3">
-        <v>0.88154948268350386</v>
+        <v>0.9080011816936524</v>
       </c>
       <c r="D3">
-        <v>-0.093616918934079682</v>
+        <v>-0.10010710349542498</v>
       </c>
       <c r="E3">
-        <v>0.15538855114436551</v>
+        <v>0.16616118057000501</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2221,16 +2233,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.22571084234709268</v>
+        <v>0.2060760900384698</v>
       </c>
       <c r="C4">
-        <v>0.77428915765290729</v>
+        <v>0.79392390996153028</v>
       </c>
       <c r="D4">
-        <v>-0.18994331471347453</v>
+        <v>-0.20354024274734636</v>
       </c>
       <c r="E4">
-        <v>0.23685105504271514</v>
+        <v>0.25380583313016919</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2241,16 +2253,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.35910857897921827</v>
+        <v>0.3485424931622263</v>
       </c>
       <c r="C5">
-        <v>0.64089142102078178</v>
+        <v>0.6514575068377737</v>
       </c>
       <c r="D5">
-        <v>-0.1898679626137201</v>
+        <v>-0.2041070211194761</v>
       </c>
       <c r="E5">
-        <v>0.3108556749506135</v>
+        <v>0.33416815000715167</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2261,16 +2273,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.46240317495782335</v>
+        <v>0.4596465452700223</v>
       </c>
       <c r="C6">
-        <v>0.53759682504217665</v>
+        <v>0.54035345472997776</v>
       </c>
       <c r="D6">
-        <v>-0.10367609329812355</v>
+        <v>-0.11127770849781743</v>
       </c>
       <c r="E6">
-        <v>0.38394333452162227</v>
+        <v>0.41209437103037866</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2281,16 +2293,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.48317933567228316</v>
+        <v>0.48195277524629815</v>
       </c>
       <c r="C7">
-        <v>0.51682066432771678</v>
+        <v>0.5180472247537018</v>
       </c>
       <c r="D7">
-        <v>0.028034440546194674</v>
+        <v>0.030078707922836415</v>
       </c>
       <c r="E7">
-        <v>0.40033181099965987</v>
+        <v>0.42952394913810416</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2301,16 +2313,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.4201257022493729</v>
+        <v>0.41489479981666172</v>
       </c>
       <c r="C8">
-        <v>0.57987429775062704</v>
+        <v>0.58510520018333834</v>
       </c>
       <c r="D8">
-        <v>0.14469981476562865</v>
+        <v>0.15417608728865628</v>
       </c>
       <c r="E8">
-        <v>0.41557786800688573</v>
+        <v>0.44279372269302092</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2320,37 +2332,22 @@
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>0.28677572121667577</v>
-      </c>
-      <c r="C9">
-        <v>0.71322427878332428</v>
-      </c>
-      <c r="D9">
-        <v>0.20615997357791319</v>
-      </c>
-      <c r="E9">
-        <v>0.3921866773204048</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.15989882245259041</v>
+        <v>0.13857374039370099</v>
       </c>
       <c r="C10">
-        <v>0.84010117754740965</v>
+        <v>0.86142625960629904</v>
       </c>
       <c r="D10">
-        <v>0.13712455073037297</v>
+        <v>0.14572255770494727</v>
       </c>
       <c r="E10">
-        <v>0.28935702084315029</v>
+        <v>0.30750033413096101</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2361,16 +2358,16 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.097562295559807763</v>
+        <v>0.069954577973839013</v>
       </c>
       <c r="C11">
-        <v>0.90243770444019222</v>
+        <v>0.93004542202616103</v>
       </c>
       <c r="D11">
-        <v>0.030419309038627839</v>
+        <v>0.032506110756839006</v>
       </c>
       <c r="E11">
-        <v>0.13930274183908564</v>
+        <v>0.14885907990883568</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2381,16 +2378,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.13295900250786116</v>
+        <v>0.10498447238605753</v>
       </c>
       <c r="C12">
-        <v>0.86704099749213881</v>
+        <v>0.89501552761394243</v>
       </c>
       <c r="D12">
-        <v>-0.11060755696539723</v>
+        <v>-0.11903766274423165</v>
       </c>
       <c r="E12">
-        <v>-0.026964031300022218</v>
+        <v>-0.02901913171376792</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2401,16 +2398,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.24082952819712841</v>
+        <v>0.22061016419404539</v>
       </c>
       <c r="C13">
-        <v>0.75917047180287156</v>
+        <v>0.77938983580595467</v>
       </c>
       <c r="D13">
-        <v>-0.19686350415716841</v>
+        <v>-0.21222194689096821</v>
       </c>
       <c r="E13">
-        <v>-0.18714184963088856</v>
+        <v>-0.20174185074820419</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2421,16 +2418,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.38080688722825373</v>
+        <v>0.37182477972797073</v>
       </c>
       <c r="C14">
-        <v>0.61919311277174627</v>
+        <v>0.62817522027202921</v>
       </c>
       <c r="D14">
-        <v>-0.19716991551961771</v>
+        <v>-0.2120281681135438</v>
       </c>
       <c r="E14">
-        <v>-0.31302116531645524</v>
+        <v>-0.33660969062093665</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2441,16 +2438,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.48064618115852031</v>
+        <v>0.47922192765063365</v>
       </c>
       <c r="C15">
-        <v>0.51935381884147969</v>
+        <v>0.52077807234936635</v>
       </c>
       <c r="D15">
-        <v>-0.10359985379850893</v>
+        <v>-0.11122379904660812</v>
       </c>
       <c r="E15">
-        <v>-0.38379761222586095</v>
+        <v>-0.41204139708343446</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2461,16 +2458,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50443915236871639</v>
+        <v>0.50478442228530074</v>
       </c>
       <c r="C16">
-        <v>0.49556084763128366</v>
+        <v>0.49521557771469921</v>
       </c>
       <c r="D16">
-        <v>0.031074066581014609</v>
+        <v>0.033490955997105672</v>
       </c>
       <c r="E16">
-        <v>-0.37526374548943897</v>
+        <v>-0.40445113788790438</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2481,16 +2478,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.4371810009721982</v>
+        <v>0.43177764238496213</v>
       </c>
       <c r="C17">
-        <v>0.56281899902780186</v>
+        <v>0.56822235761503792</v>
       </c>
       <c r="D17">
-        <v>0.14160893001182437</v>
+        <v>0.15378938242033957</v>
       </c>
       <c r="E17">
-        <v>-0.30323476140877859</v>
+        <v>-0.32931741438580969</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2501,16 +2498,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.30984288497155549</v>
+        <v>0.29355638125341921</v>
       </c>
       <c r="C18">
-        <v>0.69015711502844446</v>
+        <v>0.70644361874658079</v>
       </c>
       <c r="D18">
-        <v>0.20764282675519802</v>
+        <v>0.22542694001063418</v>
       </c>
       <c r="E18">
-        <v>-0.19409140016696405</v>
+        <v>-0.21071486603099276</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2521,19 +2518,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.18387225670423712</v>
+        <v>0.15783399178335808</v>
       </c>
       <c r="C19">
-        <v>0.81612774329576276</v>
+        <v>0.842166008216642</v>
       </c>
       <c r="D19">
-        <v>0.14607281931597324</v>
+        <v>0.15810429345182772</v>
       </c>
       <c r="E19">
-        <v>-0.071946313991449462</v>
+        <v>-0.077872263938959865</v>
       </c>
       <c r="F19">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2541,16 +2538,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.10290017230215487</v>
+        <v>0.073992502945100264</v>
       </c>
       <c r="C20">
-        <v>0.89709982769784513</v>
+        <v>0.92600749705489982</v>
       </c>
       <c r="D20">
-        <v>0.046893726630074718</v>
+        <v>0.050307448444564605</v>
       </c>
       <c r="E20">
-        <v>0.044634332429637449</v>
+        <v>0.047883577163207583</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2574,22 +2571,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="258" t="s">
+      <c r="B1" s="264" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="258" t="s">
+      <c r="C1" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="258" t="s">
+      <c r="D1" s="264" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="258" t="s">
+      <c r="E1" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="258" t="s">
+      <c r="F1" s="264" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2598,16 +2595,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0075519901630795618</v>
+        <v>0.0075519974958630672</v>
       </c>
       <c r="C2">
-        <v>0.9924480098369205</v>
+        <v>0.99244800250413689</v>
       </c>
       <c r="D2">
-        <v>0.052224023819004498</v>
+        <v>0.052224023041364115</v>
       </c>
       <c r="E2">
-        <v>0.069047870418415244</v>
+        <v>0.069047869390259822</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2618,16 +2615,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.048441265046709377</v>
+        <v>0.04844126888871135</v>
       </c>
       <c r="C3">
-        <v>0.95155873495329069</v>
+        <v>0.95155873111128864</v>
       </c>
       <c r="D3">
-        <v>-0.11079437766965544</v>
+        <v>-0.11079437672698232</v>
       </c>
       <c r="E3">
-        <v>0.1839002823106384</v>
+        <v>0.18390028074595746</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2638,16 +2635,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.16481382690942925</v>
+        <v>0.16481383008036773</v>
       </c>
       <c r="C4">
-        <v>0.83518617309057075</v>
+        <v>0.83518616991963224</v>
       </c>
       <c r="D4">
-        <v>-0.23211407008479917</v>
+        <v>-0.23211406788894645</v>
       </c>
       <c r="E4">
-        <v>0.28943615347965385</v>
+        <v>0.28943615074152096</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2658,16 +2655,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.31962564047813941</v>
+        <v>0.31962564316435976</v>
       </c>
       <c r="C5">
-        <v>0.68037435952186065</v>
+        <v>0.68037435683564029</v>
       </c>
       <c r="D5">
-        <v>-0.24307592259374544</v>
+        <v>-0.24307591897374367</v>
       </c>
       <c r="E5">
-        <v>0.39796882497680341</v>
+        <v>0.39796881905006321</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2678,16 +2675,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.45294138884807944</v>
+        <v>0.45294138947629797</v>
       </c>
       <c r="C6">
-        <v>0.54705861115192056</v>
+        <v>0.54705861052370208</v>
       </c>
       <c r="D6">
-        <v>-0.12976768529772056</v>
+        <v>-0.12976768356536023</v>
       </c>
       <c r="E6">
-        <v>0.48056824115749242</v>
+        <v>0.48056823474204813</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2698,16 +2695,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.47906130421089405</v>
+        <v>0.47906130455037577</v>
       </c>
       <c r="C7">
-        <v>0.52093869578910601</v>
+        <v>0.52093869544962423</v>
       </c>
       <c r="D7">
-        <v>0.034897826315176579</v>
+        <v>0.034897825749373695</v>
       </c>
       <c r="E7">
-        <v>0.49834095978072168</v>
+        <v>0.49834095170105625</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2718,16 +2715,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.41070293341854947</v>
+        <v>0.4107029348700133</v>
       </c>
       <c r="C8">
-        <v>0.58929706658145053</v>
+        <v>0.5892970651299867</v>
       </c>
       <c r="D8">
-        <v>0.1617700481548015</v>
+        <v>0.16177004552533805</v>
       </c>
       <c r="E8">
-        <v>0.46460357830059018</v>
+        <v>0.46460357074877112</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2737,37 +2734,22 @@
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9">
-        <v>0.28318005152588582</v>
-      </c>
-      <c r="C9">
-        <v>0.71681994847411412</v>
-      </c>
-      <c r="D9">
-        <v>0.20963651561467359</v>
-      </c>
-      <c r="E9">
-        <v>0.39880024757994148</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.13595814081029506</v>
+        <v>0.13595814425208472</v>
       </c>
       <c r="C10">
-        <v>0.864041859189705</v>
+        <v>0.86404185574791537</v>
       </c>
       <c r="D10">
-        <v>0.14677713481741578</v>
+        <v>0.14677713342972915</v>
       </c>
       <c r="E10">
-        <v>0.30972567809663248</v>
+        <v>0.30972567516836869</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2778,19 +2760,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.028706790681566594</v>
+        <v>0.028706795701738619</v>
       </c>
       <c r="C11">
-        <v>0.97129320931843333</v>
+        <v>0.97129320429826138</v>
       </c>
       <c r="D11">
-        <v>0.035623932906601548</v>
+        <v>0.035623932527138684</v>
       </c>
       <c r="E11">
-        <v>0.16313689185640601</v>
+        <v>0.16313689011868671</v>
       </c>
       <c r="F11">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2798,16 +2780,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.022444922325661965</v>
+        <v>0.022444928547565784</v>
       </c>
       <c r="C12">
-        <v>0.97755507767433802</v>
+        <v>0.97755507145243425</v>
       </c>
       <c r="D12">
-        <v>-0.14391090046857871</v>
+        <v>-0.14391089859361217</v>
       </c>
       <c r="E12">
-        <v>-0.03508275683064855</v>
+        <v>-0.035082756373567163</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2818,16 +2800,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.15483388665589518</v>
+        <v>0.1548338916979719</v>
       </c>
       <c r="C13">
-        <v>0.84516611334410485</v>
+        <v>0.8451661083020281</v>
       </c>
       <c r="D13">
-        <v>-0.26218500169616143</v>
+        <v>-0.26218499786624644</v>
       </c>
       <c r="E13">
-        <v>-0.24923759420499295</v>
+        <v>-0.24923759056420952</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2838,16 +2820,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.34666584066696493</v>
+        <v>0.34666584354578267</v>
       </c>
       <c r="C14">
-        <v>0.65333415933303518</v>
+        <v>0.65333415645421733</v>
       </c>
       <c r="D14">
-        <v>-0.25364622618642257</v>
+        <v>-0.25364622142426613</v>
       </c>
       <c r="E14">
-        <v>-0.40268129694002686</v>
+        <v>-0.40268128937976722</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2858,16 +2840,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.4756864724639403</v>
+        <v>0.47568647287815002</v>
       </c>
       <c r="C15">
-        <v>0.52431352753605964</v>
+        <v>0.52431352712184998</v>
       </c>
       <c r="D15">
-        <v>-0.13014888269302533</v>
+        <v>-0.13014888047578485</v>
       </c>
       <c r="E15">
-        <v>-0.48215155311508479</v>
+        <v>-0.48215154490106166</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2878,16 +2860,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50589412593032557</v>
+        <v>0.50589412584994731</v>
       </c>
       <c r="C16">
-        <v>0.49410587406967449</v>
+        <v>0.49410587415005269</v>
       </c>
       <c r="D16">
-        <v>0.041258881512278571</v>
+        <v>0.041258880949631163</v>
       </c>
       <c r="E16">
-        <v>-0.49825993552006742</v>
+        <v>-0.49825992872529629</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2898,16 +2880,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.40775890554154393</v>
+        <v>0.40775890707144363</v>
       </c>
       <c r="C17">
-        <v>0.59224109445845619</v>
+        <v>0.59224109292855642</v>
       </c>
       <c r="D17">
-        <v>0.20793331462668918</v>
+        <v>0.20793331117793223</v>
       </c>
       <c r="E17">
-        <v>-0.44525870680963192</v>
+        <v>-0.44525869942462459</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2918,16 +2900,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.22197201156721322</v>
+        <v>0.22197201568597519</v>
       </c>
       <c r="C18">
-        <v>0.77802798843278675</v>
+        <v>0.77802798431402487</v>
       </c>
       <c r="D18">
-        <v>0.30359378047258323</v>
+        <v>0.30359377597508458</v>
       </c>
       <c r="E18">
-        <v>-0.28378029164174101</v>
+        <v>-0.28378028743776323</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2938,16 +2920,16 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.055499044799442523</v>
+        <v>0.0554990485134172</v>
       </c>
       <c r="C19">
-        <v>0.94450095520055743</v>
+        <v>0.94450095148658286</v>
       </c>
       <c r="D19">
-        <v>0.20539009654094734</v>
+        <v>0.20539009482483486</v>
       </c>
       <c r="E19">
-        <v>-0.10116228635598891</v>
+        <v>-0.1011622855107395</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2958,16 +2940,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0065152337242718635</v>
+        <v>0.0065152411755779469</v>
       </c>
       <c r="C20">
-        <v>0.99348476627572813</v>
+        <v>0.993484758824422</v>
       </c>
       <c r="D20">
-        <v>0.058275874507426523</v>
+        <v>0.058275873627497879</v>
       </c>
       <c r="E20">
-        <v>0.055468075205695501</v>
+        <v>0.055468074368162826</v>
       </c>
       <c r="F20">
         <v>1</v>
